--- a/Records28.xlsx
+++ b/Records28.xlsx
@@ -53,31 +53,31 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>4/16/2020</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
+    <t>4/8/2020</t>
   </si>
   <si>
     <t>Dallas</t>
   </si>
   <si>
+    <t>NewJersey</t>
+  </si>
+  <si>
+    <t>6:00 pm</t>
+  </si>
+  <si>
     <t>4:00 pm</t>
   </si>
   <si>
-    <t>2:00 pm</t>
-  </si>
-  <si>
-    <t>Carmen</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>CJ@gmail.com</t>
-  </si>
-  <si>
-    <t>123654789</t>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>A@aol.com</t>
+  </si>
+  <si>
+    <t>2581236548</t>
   </si>
   <si>
     <t>female</t>
@@ -174,7 +174,7 @@
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -207,7 +207,7 @@
         <v>21</v>
       </c>
       <c r="M3" t="n">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>

--- a/Records28.xlsx
+++ b/Records28.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name=" Records 3" r:id="rId3" sheetId="1"/>
+    <sheet name=" Records 1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Boarding_Pass_Num</t>
   </si>
@@ -53,34 +53,88 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>4/8/2020</t>
+    <t>4/17/2020</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
   </si>
   <si>
     <t>Dallas</t>
   </si>
   <si>
-    <t>NewJersey</t>
+    <t>2:00 pm</t>
+  </si>
+  <si>
+    <t>12:00 pm</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>CS@gmail.com</t>
+  </si>
+  <si>
+    <t>1253654125</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>3:00 pm</t>
+  </si>
+  <si>
+    <t>1:00 pm</t>
+  </si>
+  <si>
+    <t>Cs@gmail.com</t>
+  </si>
+  <si>
+    <t>NewOrleans</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>4:00 pm</t>
+  </si>
+  <si>
+    <t>Molly</t>
+  </si>
+  <si>
+    <t>Dolly</t>
+  </si>
+  <si>
+    <t>MD@gmail.com</t>
+  </si>
+  <si>
+    <t>1478523695</t>
+  </si>
+  <si>
+    <t>4/20/2020</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
   </si>
   <si>
     <t>6:00 pm</t>
   </si>
   <si>
-    <t>4:00 pm</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>A@aol.com</t>
-  </si>
-  <si>
-    <t>2581236548</t>
-  </si>
-  <si>
-    <t>female</t>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>MJ@gmail.com</t>
+  </si>
+  <si>
+    <t>1256452356</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -174,7 +228,7 @@
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -207,10 +261,133 @@
         <v>21</v>
       </c>
       <c r="M3" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
